--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD5_Ofertas_150430.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD5_Ofertas_150430.xlsx
@@ -24,12 +24,12 @@
     <sheet name="Tipos" sheetId="16" r:id="rId10"/>
     <sheet name="Estados de la oferta" sheetId="17" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="176">
   <si>
     <t>Creation date</t>
   </si>
@@ -295,16 +295,7 @@
     </r>
   </si>
   <si>
-    <t>listado</t>
-  </si>
-  <si>
     <t>auto desde SAP</t>
-  </si>
-  <si>
-    <t>cadena de texto</t>
-  </si>
-  <si>
-    <t>numérico</t>
   </si>
   <si>
     <t>una letra para cada versión. Detrás del # SAP con un guión bajo "_"</t>
@@ -1395,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1464,10 +1455,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -1476,13 +1467,13 @@
     <row r="5" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
@@ -1493,7 +1484,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>28</v>
@@ -1506,18 +1497,18 @@
     <row r="7" spans="1:8" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
       <c r="B7" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1525,14 +1516,14 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1548,11 +1539,11 @@
         <v>28</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>42</v>
@@ -1569,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="15" t="s">
@@ -1590,7 +1581,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="15" t="s">
@@ -1686,7 +1677,7 @@
     <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -1731,7 +1722,7 @@
     <row r="21" spans="1:7" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
@@ -1742,7 +1733,7 @@
     <row r="22" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>28</v>
@@ -1757,27 +1748,27 @@
         <v>38</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
       <c r="B24" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10"/>
@@ -1787,22 +1778,22 @@
     <row r="25" spans="1:7" s="32" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
       <c r="B25" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="G25" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -1817,41 +1808,41 @@
     <row r="27" spans="1:7" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="G27" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>28</v>
@@ -1864,14 +1855,14 @@
     <row r="30" spans="1:7" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="6"/>
       <c r="E30" s="10"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -1886,7 +1877,7 @@
     <row r="32" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46"/>
       <c r="B32" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
@@ -1899,7 +1890,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>56</v>
@@ -1910,7 +1901,7 @@
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -1963,14 +1954,14 @@
     </row>
     <row r="38" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="4"/>
@@ -2014,30 +2005,30 @@
         <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
@@ -2045,21 +2036,21 @@
     <row r="43" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2099,23 +2090,23 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>51</v>
@@ -2123,10 +2114,10 @@
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2313,7 +2304,7 @@
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C66" s="72"/>
       <c r="D66" s="72"/>
@@ -2385,7 +2376,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B74" s="73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C74" s="73"/>
     </row>
@@ -2452,33 +2443,33 @@
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C85" s="71"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C86" s="35"/>
     </row>
     <row r="87" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B87" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C88" s="35"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C89" s="35"/>
     </row>
@@ -2515,33 +2506,33 @@
   <sheetData>
     <row r="2" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C2" s="77"/>
     </row>
     <row r="3" spans="2:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C4" s="35"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C5" s="35"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C6" s="35"/>
     </row>
@@ -2569,33 +2560,33 @@
   <sheetData>
     <row r="2" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="77"/>
     </row>
     <row r="3" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="35"/>
     </row>
     <row r="4" spans="2:3" s="32" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="35"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="35"/>
     </row>
@@ -2672,7 +2663,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="52"/>
@@ -2681,13 +2672,13 @@
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="53"/>
@@ -2698,7 +2689,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>28</v>
@@ -2711,18 +2702,18 @@
     <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="55" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -2730,14 +2721,14 @@
         <v>38</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="10"/>
@@ -2753,14 +2744,14 @@
         <v>28</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2774,14 +2765,14 @@
         <v>28</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -2795,14 +2786,14 @@
         <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -2821,7 +2812,7 @@
         <v>52</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -2829,41 +2820,41 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>51</v>
@@ -2871,29 +2862,29 @@
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +2997,7 @@
     <row r="6" spans="1:8" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -3029,7 +3020,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="60" t="s">
@@ -3069,7 +3060,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -3105,7 +3096,7 @@
     <row r="3" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>28</v>
@@ -3120,27 +3111,27 @@
         <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -3150,62 +3141,62 @@
     <row r="6" spans="1:8" s="32" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47"/>
       <c r="B9" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>28</v>
@@ -3218,7 +3209,7 @@
     <row r="10" spans="1:8" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>28</v>
@@ -3227,7 +3218,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3330,14 +3321,14 @@
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
@@ -3381,31 +3372,31 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
@@ -3413,18 +3404,18 @@
     <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3493,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -3642,7 +3633,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="33"/>
@@ -3728,7 +3719,7 @@
     <row r="1" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="45"/>
       <c r="B1" s="72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
@@ -3771,7 +3762,7 @@
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -3788,7 +3779,7 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -3805,7 +3796,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
       <c r="G5" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -3820,7 +3811,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3843,7 @@
   <sheetData>
     <row r="2" spans="2:7" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="62"/>
